--- a/1des/autoavaliacao.xlsx
+++ b/1des/autoavaliacao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2021\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="FPOO" sheetId="1" r:id="rId1"/>
+    <sheet name="LIMA" sheetId="2" r:id="rId2"/>
+    <sheet name="SOP" sheetId="3" r:id="rId3"/>
+    <sheet name="HARE" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="146">
   <si>
     <t>Natureza dos Critérios</t>
   </si>
@@ -336,6 +339,132 @@
   </si>
   <si>
     <t>NÍVEL MÍNIMO DE DESEMPENHO ESPERADO</t>
+  </si>
+  <si>
+    <t>7. Aplicar técnicas de estilização de páginas web</t>
+  </si>
+  <si>
+    <t>Relacionar adequadamente os comandos CSS para estilizar os elementos HTML.</t>
+  </si>
+  <si>
+    <t>8. Utilizar ferramentas gráficas para interface web e mobile</t>
+  </si>
+  <si>
+    <t>9. Otimizar imagens para aplicação em ambientes web e mobile</t>
+  </si>
+  <si>
+    <t>3. Demonstrar raciocínio lógico na organização das informações (24)</t>
+  </si>
+  <si>
+    <t>4. Seguir método de trabalho (21)</t>
+  </si>
+  <si>
+    <t>1. Identificar as características e tipos de linguagem de marcação</t>
+  </si>
+  <si>
+    <t>2. Utilizar linguagem de marcação para desenvolvimento de páginas web</t>
+  </si>
+  <si>
+    <t>3. Desenhar leiautes de tela para ambientes web</t>
+  </si>
+  <si>
+    <t>4. Codificar leiautes de página web</t>
+  </si>
+  <si>
+    <t>5. Utilizar semântica de linguagem de marcação conforme normas</t>
+  </si>
+  <si>
+    <t>6. Elaborar formulários de página web</t>
+  </si>
+  <si>
+    <t>Identifica e diferencia HTML de CSS</t>
+  </si>
+  <si>
+    <t>Constroi folha de estilo CSS e aplica a página HTML</t>
+  </si>
+  <si>
+    <t>Organiza a estrutura do leiaute a priori através de rascunhos.</t>
+  </si>
+  <si>
+    <t>Implementa leiautes com as estruturas de separações básicas de uma página: cabeçalho, menu, corpo e rodapé.</t>
+  </si>
+  <si>
+    <t>Aplica a sequência correta das classes e objetos CSS e como é carregado pelo navegador</t>
+  </si>
+  <si>
+    <t>Implementa formulários HTML funcionais conforme solicitado.</t>
+  </si>
+  <si>
+    <t>Desenvolve todos os itens solicitados nas situações problema propostos</t>
+  </si>
+  <si>
+    <t>Relaciona os objetos HTML e controla seu estilo através do CSS</t>
+  </si>
+  <si>
+    <t>Trabalha com imagens em plano de fundo e em primeiro plano</t>
+  </si>
+  <si>
+    <t>Diferencia imagens png, jpg e outros formatos, ajusta tamanho e peso das imagens</t>
+  </si>
+  <si>
+    <t>Resolve os problemas propostos nas situações de aprendizagem</t>
+  </si>
+  <si>
+    <t>Utiliza ferramentas como VSCode, Notepad++ e GitHub</t>
+  </si>
+  <si>
+    <t>3. Seguir método de trabalho (21)</t>
+  </si>
+  <si>
+    <t>4. Demonstrar capacidade de organização (6)</t>
+  </si>
+  <si>
+    <t>4. Configurar sistemas operacionais considerando variáveis de ambiente, memória, disco, serviço, usuários e permissões (2)</t>
+  </si>
+  <si>
+    <t>5. Instalar gerenciador de pacotes de acordo com o sistema operacional</t>
+  </si>
+  <si>
+    <t>6. Utilizar ferramentas de edição de texto e planilha eletrônica para a elaboração da documentação técnica</t>
+  </si>
+  <si>
+    <t>1. Identificar as características técnicas dos sistemas de arquivo, tendo em vista a utilização de sistemas operacionais (3)</t>
+  </si>
+  <si>
+    <t>2. Instalar sistemas operacionais em máquinas virtuais</t>
+  </si>
+  <si>
+    <t>3. Operar sistemas operacionais por meio de linha de comando e interface gráfica (2)</t>
+  </si>
+  <si>
+    <t>Manipula arquivos e pasta localmente e remotamente no SO Windows</t>
+  </si>
+  <si>
+    <t>Instala o SO Windows em maquina virtual e física</t>
+  </si>
+  <si>
+    <t>Utiliza os aplicativos básicos internet e Office</t>
+  </si>
+  <si>
+    <t>Instala programas necessário para criar seu ambiente de desenvolvimento</t>
+  </si>
+  <si>
+    <t>Configura data, hora, usuários, rede e funções básicas do Sistema Operacional</t>
+  </si>
+  <si>
+    <t>Realiza cálculos, funções, gráficos mácros e dashboard</t>
+  </si>
+  <si>
+    <t>Responde a cada questão ou tarefa solicitada</t>
+  </si>
+  <si>
+    <t>Integra soluções utilizando diversos programas ou plataformas, arquivos CSV, linguagens de Programação e Macros</t>
+  </si>
+  <si>
+    <t>Padroniza e ou Normaliza dados para tratar e relacionar informações</t>
+  </si>
+  <si>
+    <t>Distribui os assuntos em Planilhas, Abas, Arquivos e Apresenta os dados facilitando o entendimento</t>
   </si>
 </sst>
 </file>
@@ -915,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,24 +1067,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,48 +1074,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1070,6 +1139,78 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,121 +1514,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1496,102 +1637,102 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
     </row>
     <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="32">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
     </row>
     <row r="4" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1627,16 +1768,16 @@
       <c r="AM4" s="6"/>
     </row>
     <row r="5" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1672,16 +1813,16 @@
       <c r="AM5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1717,16 +1858,16 @@
       <c r="AM6" s="6"/>
     </row>
     <row r="7" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1762,16 +1903,16 @@
       <c r="AM7" s="6"/>
     </row>
     <row r="8" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1807,16 +1948,16 @@
       <c r="AM8" s="6"/>
     </row>
     <row r="9" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1852,16 +1993,16 @@
       <c r="AM9" s="6"/>
     </row>
     <row r="10" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1897,16 +2038,16 @@
       <c r="AM10" s="6"/>
     </row>
     <row r="11" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1942,16 +2083,16 @@
       <c r="AM11" s="6"/>
     </row>
     <row r="12" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1987,16 +2128,16 @@
       <c r="AM12" s="6"/>
     </row>
     <row r="13" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2032,16 +2173,16 @@
       <c r="AM13" s="6"/>
     </row>
     <row r="14" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2077,16 +2218,16 @@
       <c r="AM14" s="6"/>
     </row>
     <row r="15" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2122,16 +2263,16 @@
       <c r="AM15" s="6"/>
     </row>
     <row r="16" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2167,18 +2308,18 @@
       <c r="AM16" s="6"/>
     </row>
     <row r="17" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2214,16 +2355,16 @@
       <c r="AM17" s="6"/>
     </row>
     <row r="18" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2259,16 +2400,16 @@
       <c r="AM18" s="6"/>
     </row>
     <row r="19" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2304,16 +2445,16 @@
       <c r="AM19" s="6"/>
     </row>
     <row r="20" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2349,16 +2490,16 @@
       <c r="AM20" s="6"/>
     </row>
     <row r="21" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2394,16 +2535,16 @@
       <c r="AM21" s="6"/>
     </row>
     <row r="22" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2439,14 +2580,14 @@
       <c r="AM22" s="6"/>
     </row>
     <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="4">
         <f>IF(18-SUM(G4:G22)&lt;=1,1,18-SUM(G4:G22))</f>
         <v>18</v>
@@ -2581,14 +2722,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="7">
         <f>VLOOKUP(G23,$C$27:$D$44,2,0)</f>
         <v>0</v>
@@ -2724,269 +2865,225 @@
     </row>
     <row r="25" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="25">
         <v>1</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="15">
         <v>2</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="23">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="25">
         <v>3</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="23">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="15">
         <v>4</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="23">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="25">
         <v>5</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="23">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="15">
         <v>6</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="23">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="25">
         <v>7</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="23">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="15">
         <v>8</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="23">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="25">
         <v>9</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="23">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="35">
-        <v>10</v>
-      </c>
-      <c r="D36" s="43">
+      <c r="C36" s="15">
+        <v>10</v>
+      </c>
+      <c r="D36" s="23">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="30">
         <v>11</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="19">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="15">
         <v>12</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="25">
         <v>13</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="15">
         <v>14</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="15">
         <v>15</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="15">
         <v>16</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="15">
         <v>17</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="20">
         <v>18</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="52">
+      <c r="C46" s="32">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="AF1:AF3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3002,6 +3099,3697 @@
     <mergeCell ref="AB1:AB3"/>
     <mergeCell ref="AC1:AC3"/>
     <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="7" max="39" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+    </row>
+    <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+    </row>
+    <row r="4" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+    </row>
+    <row r="5" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+    </row>
+    <row r="6" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+    </row>
+    <row r="7" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+    </row>
+    <row r="8" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+    </row>
+    <row r="9" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+    </row>
+    <row r="10" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+    </row>
+    <row r="11" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+    </row>
+    <row r="12" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+    </row>
+    <row r="13" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+    </row>
+    <row r="14" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+    </row>
+    <row r="15" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+    </row>
+    <row r="16" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+    </row>
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="4">
+        <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
+        <v>13</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:AL17" si="0">IF(13-SUM(H4:H16)&lt;=1,1,13-SUM(H4:H16))</f>
+        <v>13</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AG17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AI17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AL17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AM17" s="4">
+        <f>IF(13-SUM(AM4:AM16)&lt;=1,1,13-SUM(AM4:AM16))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="7">
+        <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:AL18" si="1">VLOOKUP(H17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7">
+        <f>VLOOKUP(AM17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="25">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="25">
+        <v>3</v>
+      </c>
+      <c r="D23" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="25">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="25">
+        <v>6</v>
+      </c>
+      <c r="D26" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="25">
+        <v>7</v>
+      </c>
+      <c r="D27" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="30">
+        <v>8</v>
+      </c>
+      <c r="D28" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="25">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="25">
+        <v>10</v>
+      </c>
+      <c r="D30" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="25">
+        <v>11</v>
+      </c>
+      <c r="D31" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="25">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="25">
+        <v>13</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="32">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="7" max="39" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+    </row>
+    <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+    </row>
+    <row r="4" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+    </row>
+    <row r="5" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+    </row>
+    <row r="6" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+    </row>
+    <row r="7" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+    </row>
+    <row r="8" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+    </row>
+    <row r="9" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+    </row>
+    <row r="10" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+    </row>
+    <row r="11" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+    </row>
+    <row r="12" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+    </row>
+    <row r="13" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+    </row>
+    <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="4">
+        <f>IF(10-SUM(G4:G13)&lt;=1,1,10-SUM(G4:G13))</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:AM14" si="0">IF(10-SUM(H4:H13)&lt;=1,1,10-SUM(H4:H13))</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AD14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AE14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AI14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AK14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AL14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AM14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="7">
+        <f>VLOOKUP(G14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <f>VLOOKUP(H14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <f>VLOOKUP(I14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>VLOOKUP(J14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f>VLOOKUP(K14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f>VLOOKUP(L14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f>VLOOKUP(M14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <f>VLOOKUP(N14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <f>VLOOKUP(O14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <f>VLOOKUP(P14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>VLOOKUP(Q14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <f>VLOOKUP(R14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <f>VLOOKUP(S14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <f>VLOOKUP(T14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <f>VLOOKUP(U14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <f>VLOOKUP(V14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <f>VLOOKUP(W14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <f>VLOOKUP(X14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <f>VLOOKUP(Y14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
+        <f>VLOOKUP(Z14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <f>VLOOKUP(AA14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <f>VLOOKUP(AB14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <f>VLOOKUP(AC14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <f>VLOOKUP(AD14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <f>VLOOKUP(AE14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <f>VLOOKUP(AF14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <f>VLOOKUP(AG14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="7">
+        <f>VLOOKUP(AH14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <f>VLOOKUP(AI14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <f>VLOOKUP(AJ14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <f>VLOOKUP(AK14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <f>VLOOKUP(AL14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <f>VLOOKUP(AM14,$C$18:$D$27,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1</v>
+      </c>
+      <c r="D18" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="25">
+        <v>2</v>
+      </c>
+      <c r="D19" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="25">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="25">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="25">
+        <v>5</v>
+      </c>
+      <c r="D22" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="25">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="30">
+        <v>7</v>
+      </c>
+      <c r="D24" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="25">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="25">
+        <v>10</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="32">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="7" max="39" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+    </row>
+    <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+    </row>
+    <row r="4" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+    </row>
+    <row r="5" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+    </row>
+    <row r="6" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+    </row>
+    <row r="7" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+    </row>
+    <row r="8" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+    </row>
+    <row r="9" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+    </row>
+    <row r="10" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+    </row>
+    <row r="11" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+    </row>
+    <row r="12" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+    </row>
+    <row r="13" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+    </row>
+    <row r="14" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+    </row>
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="4">
+        <f>IF(10-SUM(G4:G14)&lt;=1,1,10-SUM(G4:G14))</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ref="H15:AM15" si="0">IF(10-SUM(H4:H14)&lt;=1,1,10-SUM(H4:H14))</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AE15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AG15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AH15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AI15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AK15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AL15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AM15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="7">
+        <f>VLOOKUP(G15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>VLOOKUP(H15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f>VLOOKUP(I15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>VLOOKUP(J15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f>VLOOKUP(K15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f>VLOOKUP(L15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f>VLOOKUP(M15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f>VLOOKUP(N15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f>VLOOKUP(O15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <f>VLOOKUP(P15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>VLOOKUP(Q15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <f>VLOOKUP(R15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <f>VLOOKUP(S15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <f>VLOOKUP(T15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f>VLOOKUP(U15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <f>VLOOKUP(V15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <f>VLOOKUP(W15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <f>VLOOKUP(X15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <f>VLOOKUP(Y15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <f>VLOOKUP(Z15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <f>VLOOKUP(AA15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <f>VLOOKUP(AB15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <f>VLOOKUP(AC15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <f>VLOOKUP(AD15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <f>VLOOKUP(AE15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <f>VLOOKUP(AF15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <f>VLOOKUP(AG15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <f>VLOOKUP(AH15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <f>VLOOKUP(AI15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
+        <f>VLOOKUP(AJ15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <f>VLOOKUP(AK15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <f>VLOOKUP(AL15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <f>VLOOKUP(AM15,$C$19:$D$28,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="25">
+        <v>2</v>
+      </c>
+      <c r="D20" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="25">
+        <v>3</v>
+      </c>
+      <c r="D21" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="25">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="25">
+        <v>5</v>
+      </c>
+      <c r="D23" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="25">
+        <v>6</v>
+      </c>
+      <c r="D24" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="30">
+        <v>7</v>
+      </c>
+      <c r="D25" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="25">
+        <v>8</v>
+      </c>
+      <c r="D26" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="25">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="25">
+        <v>10</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="32">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/1des/autoavaliacao.xlsx
+++ b/1des/autoavaliacao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2021\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="168">
   <si>
     <t>Natureza dos Critérios</t>
   </si>
@@ -465,6 +465,72 @@
   </si>
   <si>
     <t>Distribui os assuntos em Planilhas, Abas, Arquivos e Apresenta os dados facilitando o entendimento</t>
+  </si>
+  <si>
+    <t>7. Identificar as topologias físicas empregadas nas redes de computadores</t>
+  </si>
+  <si>
+    <t>8. Identificar o modelo TCP/IP e sua aplicação na comunicação entre sistemas computacionais</t>
+  </si>
+  <si>
+    <t>9. Identificar os ativos e passivos que compõem uma rede de computadores (4)</t>
+  </si>
+  <si>
+    <t>10. Identificar os tipos de serviços disponíveis em redes</t>
+  </si>
+  <si>
+    <t>11. Compartilhar unidades e pastas em rede</t>
+  </si>
+  <si>
+    <t>12. Acessar unidades e pastas compartilhadas em rede</t>
+  </si>
+  <si>
+    <t>13. Mapear unidades e pastas compartilhadas em rede</t>
+  </si>
+  <si>
+    <t>5. Seguir método de trabalho (21)</t>
+  </si>
+  <si>
+    <t>3. Demonstrar capacidade de organização (6)</t>
+  </si>
+  <si>
+    <t>6. Trabalhar em equipe (2)</t>
+  </si>
+  <si>
+    <t>Identifica as principais topologias de redes (Estrela, Barra e Anel)</t>
+  </si>
+  <si>
+    <t>Endereça dispositivos de rede ou configura para que receba autoconfiguração, efetivamente realizando conexões de rede</t>
+  </si>
+  <si>
+    <t>Orça valores via internet, telefone ou presencialmente para dispositivos "Switches, Roteadores" e insumos "Cabos, Conectores"</t>
+  </si>
+  <si>
+    <t>Compartilha arquivos, configura ip automático ou manual, identifica o serviço de DHCP</t>
+  </si>
+  <si>
+    <t>Compartilha arquivos por diversos meios, Google drive, GitHub</t>
+  </si>
+  <si>
+    <t>Acessa arquivos por diversos meios, Google drive, GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mapea unidades e pastas compartilhadas em rede</t>
+  </si>
+  <si>
+    <t>Monta projeto de redes no simulador Packet Tracer</t>
+  </si>
+  <si>
+    <t>Identifica as classes de IPv4, Ips reservados para redes privadas e máscaras de subrede</t>
+  </si>
+  <si>
+    <t>Identifica a classe de um IPv4 ou Máscara</t>
+  </si>
+  <si>
+    <t>Cumpre as normas técnicas para Cabeamento estruturado</t>
+  </si>
+  <si>
+    <t>Auxilia colegas da turma em experimentos no simulador.</t>
   </si>
 </sst>
 </file>
@@ -588,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1106,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,15 +1164,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,32 +1230,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1191,7 +1257,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,8 +1287,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,7 +1600,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:F5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,121 +1616,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AE1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="42" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AK1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AM1" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1637,102 +1739,102 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
     </row>
     <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1768,16 +1870,16 @@
       <c r="AM4" s="6"/>
     </row>
     <row r="5" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1813,16 +1915,16 @@
       <c r="AM5" s="6"/>
     </row>
     <row r="6" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1858,16 +1960,16 @@
       <c r="AM6" s="6"/>
     </row>
     <row r="7" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1903,16 +2005,16 @@
       <c r="AM7" s="6"/>
     </row>
     <row r="8" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1948,16 +2050,16 @@
       <c r="AM8" s="6"/>
     </row>
     <row r="9" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1993,16 +2095,16 @@
       <c r="AM9" s="6"/>
     </row>
     <row r="10" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2038,16 +2140,16 @@
       <c r="AM10" s="6"/>
     </row>
     <row r="11" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2083,16 +2185,16 @@
       <c r="AM11" s="6"/>
     </row>
     <row r="12" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2128,16 +2230,16 @@
       <c r="AM12" s="6"/>
     </row>
     <row r="13" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2173,16 +2275,16 @@
       <c r="AM13" s="6"/>
     </row>
     <row r="14" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2218,16 +2320,16 @@
       <c r="AM14" s="6"/>
     </row>
     <row r="15" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2263,16 +2365,16 @@
       <c r="AM15" s="6"/>
     </row>
     <row r="16" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2308,18 +2410,18 @@
       <c r="AM16" s="6"/>
     </row>
     <row r="17" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2355,16 +2457,16 @@
       <c r="AM17" s="6"/>
     </row>
     <row r="18" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2400,16 +2502,16 @@
       <c r="AM18" s="6"/>
     </row>
     <row r="19" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2445,16 +2547,16 @@
       <c r="AM19" s="6"/>
     </row>
     <row r="20" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2490,16 +2592,16 @@
       <c r="AM20" s="6"/>
     </row>
     <row r="21" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2535,16 +2637,16 @@
       <c r="AM21" s="6"/>
     </row>
     <row r="22" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2580,14 +2682,14 @@
       <c r="AM22" s="6"/>
     </row>
     <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="4">
         <f>IF(18-SUM(G4:G22)&lt;=1,1,18-SUM(G4:G22))</f>
         <v>18</v>
@@ -2722,14 +2824,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="7">
         <f>VLOOKUP(G23,$C$27:$D$44,2,0)</f>
         <v>0</v>
@@ -2865,225 +2967,268 @@
     </row>
     <row r="25" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>2</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="20">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>3</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="20">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>4</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="20">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>5</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="20">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>6</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="20">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>7</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="20">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>8</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="20">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <v>9</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>10</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="20">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="27">
         <v>11</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <v>12</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="14">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="25">
-        <v>13</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="C39" s="22">
+        <v>13</v>
+      </c>
+      <c r="D39" s="14">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="12">
         <v>14</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>15</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="12">
         <v>16</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="12">
         <v>17</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="17">
         <v>18</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="29">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="T1:T3"/>
     <mergeCell ref="AF1:AF3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -3100,49 +3245,6 @@
     <mergeCell ref="AC1:AC3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A4:A16"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3154,10 +3256,10 @@
   <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,121 +3271,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AE1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="42" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AK1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AM1" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -3292,687 +3394,687 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
     </row>
     <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
     </row>
     <row r="5" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
     </row>
     <row r="6" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
     </row>
     <row r="7" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
     </row>
     <row r="8" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
     </row>
     <row r="9" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
     </row>
     <row r="10" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
     </row>
     <row r="11" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
     </row>
     <row r="12" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
     </row>
     <row r="13" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
     </row>
     <row r="14" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
     </row>
     <row r="15" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
     </row>
     <row r="16" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
     </row>
     <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="4">
         <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
         <v>13</v>
@@ -4107,14 +4209,14 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="7">
         <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
         <v>0</v>
@@ -4250,170 +4352,207 @@
     </row>
     <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>1</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <v>3</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="22">
         <v>4</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="20">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <v>5</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>6</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>7</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="20">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="27">
         <v>8</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>9</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="14">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <v>10</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>11</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <v>12</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="25">
-        <v>13</v>
-      </c>
-      <c r="D33" s="21">
+      <c r="C33" s="22">
+        <v>13</v>
+      </c>
+      <c r="D33" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="29">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
@@ -4430,43 +4569,6 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4481,7 +4583,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,121 +4595,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AE1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="42" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AK1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AM1" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -4616,552 +4718,552 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
     </row>
     <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
     </row>
     <row r="5" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
     </row>
     <row r="6" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
     </row>
     <row r="7" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
     </row>
     <row r="8" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
     </row>
     <row r="9" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
     </row>
     <row r="10" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
     </row>
     <row r="11" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
     </row>
     <row r="12" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
     </row>
     <row r="13" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
     </row>
     <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="4">
         <f>IF(10-SUM(G4:G13)&lt;=1,1,10-SUM(G4:G13))</f>
         <v>10</v>
@@ -5296,280 +5398,323 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="7">
-        <f>VLOOKUP(G14,$C$18:$D$27,2,0)</f>
+        <f t="shared" ref="G15:AM15" si="1">VLOOKUP(G14,$C$18:$D$27,2,0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <f>VLOOKUP(H14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <f>VLOOKUP(I14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f>VLOOKUP(J14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <f>VLOOKUP(K14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <f>VLOOKUP(L14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="7">
-        <f>VLOOKUP(M14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <f>VLOOKUP(N14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <f>VLOOKUP(O14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <f>VLOOKUP(P14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="7">
-        <f>VLOOKUP(Q14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="7">
-        <f>VLOOKUP(R14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="7">
-        <f>VLOOKUP(S14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="7">
-        <f>VLOOKUP(T14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="7">
-        <f>VLOOKUP(U14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15" s="7">
-        <f>VLOOKUP(V14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15" s="7">
-        <f>VLOOKUP(W14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" s="7">
-        <f>VLOOKUP(X14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="7">
-        <f>VLOOKUP(Y14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z15" s="7">
-        <f>VLOOKUP(Z14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="7">
-        <f>VLOOKUP(AA14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB15" s="7">
-        <f>VLOOKUP(AB14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15" s="7">
-        <f>VLOOKUP(AC14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD15" s="7">
-        <f>VLOOKUP(AD14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AE15" s="7">
-        <f>VLOOKUP(AE14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF15" s="7">
-        <f>VLOOKUP(AF14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG15" s="7">
-        <f>VLOOKUP(AG14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH15" s="7">
-        <f>VLOOKUP(AH14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI15" s="7">
-        <f>VLOOKUP(AI14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="7">
-        <f>VLOOKUP(AJ14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK15" s="7">
-        <f>VLOOKUP(AK14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AL15" s="7">
-        <f>VLOOKUP(AL14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM15" s="7">
-        <f>VLOOKUP(AM14,$C$18:$D$27,2,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>1</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="22">
         <v>2</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>3</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="20">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>4</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <v>6</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="27">
         <v>7</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <v>8</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>9</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>10</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -5577,49 +5722,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5628,139 +5730,139 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="7" max="39" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AE1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AJ1" s="42" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AK1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AM1" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -5769,984 +5871,1164 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
     </row>
     <row r="3" spans="1:39" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
     </row>
     <row r="4" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
+      <c r="B4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
     </row>
     <row r="5" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
     </row>
     <row r="6" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
     </row>
     <row r="7" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
     </row>
     <row r="8" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
     </row>
     <row r="9" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
     </row>
     <row r="10" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
     </row>
     <row r="11" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
     </row>
     <row r="12" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
+      <c r="C12" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
     </row>
     <row r="13" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
     </row>
     <row r="14" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-    </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+    </row>
+    <row r="15" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+    </row>
+    <row r="16" spans="1:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+    </row>
+    <row r="17" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="4">
-        <f>IF(10-SUM(G4:G14)&lt;=1,1,10-SUM(G4:G14))</f>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="4">
+        <f>IF(13-SUM(G4:G16)&lt;=1,1,13-SUM(G4:G16))</f>
+        <v>13</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:AM17" si="0">IF(13-SUM(H4:H16)&lt;=1,1,13-SUM(H4:H16))</f>
+        <v>13</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AG17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AI17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AL17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AM17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="7">
+        <f>VLOOKUP(G17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:AM18" si="1">VLOOKUP(H17,$C$21:$D$33,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:39" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="22">
+        <v>3</v>
+      </c>
+      <c r="D23" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="22">
+        <v>4</v>
+      </c>
+      <c r="D24" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="22">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="22">
+        <v>6</v>
+      </c>
+      <c r="D26" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="22">
+        <v>7</v>
+      </c>
+      <c r="D27" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="27">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="22">
+        <v>9</v>
+      </c>
+      <c r="D29" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="22">
         <v>10</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" ref="H15:AM15" si="0">IF(10-SUM(H4:H14)&lt;=1,1,10-SUM(H4:H14))</f>
+      <c r="D30" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="22">
+        <v>11</v>
+      </c>
+      <c r="D31" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="22">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="X15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Y15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AA15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AB15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AC15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AG15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AH15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AI15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AJ15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AK15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AL15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AM15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="7">
-        <f>VLOOKUP(G15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <f>VLOOKUP(H15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <f>VLOOKUP(I15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <f>VLOOKUP(J15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <f>VLOOKUP(K15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <f>VLOOKUP(L15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <f>VLOOKUP(M15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <f>VLOOKUP(N15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <f>VLOOKUP(O15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <f>VLOOKUP(P15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <f>VLOOKUP(Q15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <f>VLOOKUP(R15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
-        <f>VLOOKUP(S15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="7">
-        <f>VLOOKUP(T15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <f>VLOOKUP(U15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <f>VLOOKUP(V15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <f>VLOOKUP(W15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <f>VLOOKUP(X15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <f>VLOOKUP(Y15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7">
-        <f>VLOOKUP(Z15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
-        <f>VLOOKUP(AA15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="7">
-        <f>VLOOKUP(AB15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7">
-        <f>VLOOKUP(AC15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7">
-        <f>VLOOKUP(AD15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="7">
-        <f>VLOOKUP(AE15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="7">
-        <f>VLOOKUP(AF15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="7">
-        <f>VLOOKUP(AG15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="7">
-        <f>VLOOKUP(AH15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="7">
-        <f>VLOOKUP(AI15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="7">
-        <f>VLOOKUP(AJ15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="7">
-        <f>VLOOKUP(AK15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="7">
-        <f>VLOOKUP(AL15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="7">
-        <f>VLOOKUP(AM15,$C$19:$D$28,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="25">
-        <v>1</v>
-      </c>
-      <c r="D19" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="25">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="25">
-        <v>3</v>
-      </c>
-      <c r="D21" s="23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="25">
-        <v>4</v>
-      </c>
-      <c r="D22" s="23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="25">
-        <v>5</v>
-      </c>
-      <c r="D23" s="23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="25">
-        <v>6</v>
-      </c>
-      <c r="D24" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="30">
-        <v>7</v>
-      </c>
-      <c r="D25" s="19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="25">
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="57">
+        <v>13</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="29">
         <v>8</v>
       </c>
-      <c r="D26" s="17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="25">
-        <v>9</v>
-      </c>
-      <c r="D27" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="25">
-        <v>10</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="32">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="A15:F15"/>
+  <mergeCells count="53">
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -6754,42 +7036,16 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
